--- a/biology/Zoologie/Alburnus_volviticus/Alburnus_volviticus.xlsx
+++ b/biology/Zoologie/Alburnus_volviticus/Alburnus_volviticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alburnus volviticus est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus volviticus est endémique de Grèce. Cette espèce se rencontre désormais plus que dans le bassin du lac Volvi. Dans le passé elle était également présente dans celui du lac Koronia [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus volviticus est endémique de Grèce. Cette espèce se rencontre désormais plus que dans le bassin du lac Volvi. Dans le passé elle était également présente dans celui du lac Koronia .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus volviticus est de 300 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus volviticus est de 300 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite initialement comme Chalcalburnus chalcoides macedonicus par Stephanidis en 1971.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à son lieu de découverte, le lac Volvi.
 </t>
@@ -635,9 +655,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Freyhof &amp; Kottelat, 2007 : Review of the Alburnus mento species group with description of two new species (Teleostei: Cyrinidae). Ichthyological Exploration of Freshwaters , vol. 18, n. 3, p. 213-225[4] (introduction).</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Freyhof &amp; Kottelat, 2007 : Review of the Alburnus mento species group with description of two new species (Teleostei: Cyrinidae). Ichthyological Exploration of Freshwaters , vol. 18, n. 3, p. 213-225 (introduction).</t>
         </is>
       </c>
     </row>
